--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2098147.807559585</v>
+        <v>2112822.155023835</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230133</v>
+        <v>3254445.780230131</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5810588664029</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>214.0077506398264</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>70.52904586619742</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>82.05707201220442</v>
       </c>
       <c r="H5" t="n">
-        <v>18.29749587628862</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.6855069843875</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>30.53548548832437</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>207.0368788505634</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>18.29749587628863</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>84.56713651463426</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>200.1530008169243</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>300.7161095631251</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.75723221363086</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>45.73305741335533</v>
       </c>
       <c r="V13" t="n">
-        <v>82.61261808215069</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.34897889078526</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.7732027483572</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4267285886526</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>263.9291900978399</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>250.9159333061817</v>
+        <v>296.6083605712905</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>151.0482174230038</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>2.454476553028011</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>122.9420114679245</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>234.4090953285962</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664349</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958679</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183532</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>165.0140383262328</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>49.22623797673688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>215.1017111486326</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>412.4198296272988</v>
@@ -2338,7 +2338,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459716</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1150202768096</v>
+        <v>130.5446252133703</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
-        <v>170.2296522567783</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.98283115815043</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>158.2701057155529</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,16 +2608,16 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U26" t="n">
-        <v>215.638494366729</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>109.6969267282456</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>201.4801154596064</v>
+        <v>196.7874736905604</v>
       </c>
       <c r="T28" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H29" t="n">
-        <v>90.04724342142413</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459716</v>
+        <v>50.88405472369428</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
         <v>251.1150202768096</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S31" t="n">
         <v>201.4801154596064</v>
@@ -3009,16 +3009,16 @@
         <v>286.248492634809</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>59.66589340368931</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>209.1730504821281</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>63.8560573145193</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T32" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V32" t="n">
-        <v>247.8209633983769</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I34" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.931832696654979</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S34" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>4.111843333601549</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>189.007977330819</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H35" t="n">
-        <v>309.9502217094637</v>
+        <v>118.175887116385</v>
       </c>
       <c r="I35" t="n">
         <v>99.33258322459716</v>
@@ -3319,7 +3319,7 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T35" t="n">
-        <v>18.70158569204593</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
         <v>251.1150202768096</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.697806127624</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4801154596064</v>
+        <v>52.36694385993275</v>
       </c>
       <c r="T37" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>231.2185368045997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>2.044107390794543</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33258322459716</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921758</v>
+        <v>23.63672627211289</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
         <v>251.1150202768096</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543409</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28891401906287</v>
+        <v>36.28891401906286</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.388042077384782</v>
+        <v>4.388042077384767</v>
       </c>
       <c r="S39" t="n">
         <v>143.0320641923714</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T40" t="n">
-        <v>222.420212896533</v>
+        <v>220.5677974730872</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.1193137307521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.4198296272988</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>309.9502217094637</v>
+        <v>247.9979298960173</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>356.9499197996611</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>73.76785648631261</v>
       </c>
       <c r="G43" t="n">
-        <v>94.54365413881077</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>116.5612290399728</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.4202128965329</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
-        <v>99.33258322459714</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
-        <v>5.162574081601942</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>266.548858835991</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>48.7943842176064</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.4202128965329</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.248492634809</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.8016643219879</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>746.3079049238204</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="F2" t="n">
-        <v>460.1224861050055</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
         <v>243.9530410142718</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>414.6641751762832</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C3" t="n">
-        <v>240.2111458951562</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D3" t="n">
-        <v>91.27673623390493</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X3" t="n">
-        <v>790.6398109613051</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y3" t="n">
-        <v>582.8795121963512</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E5" t="n">
-        <v>72.23626279480629</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F5" t="n">
-        <v>65.29076204560282</v>
+        <v>570.2877489838309</v>
       </c>
       <c r="G5" t="n">
-        <v>49.83345142425428</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>726.8416594126254</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="C6" t="n">
-        <v>726.8416594126254</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="D6" t="n">
-        <v>577.9072497513741</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4655,13 +4655,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>726.8416594126254</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>726.8416594126254</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>726.8416594126254</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>726.8416594126254</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>726.8416594126254</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>726.8416594126254</v>
+        <v>933.213230774955</v>
       </c>
       <c r="Y6" t="n">
-        <v>726.8416594126254</v>
+        <v>725.4529320100012</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>742.8341567219593</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>533.7059962668447</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>290.2572196227447</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
         <v>46.80844297864461</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>588.0815197256143</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C9" t="n">
-        <v>413.6284904444873</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D9" t="n">
-        <v>264.694080783236</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>105.4566257777805</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6587889471018</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6587889471018</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>325.807288741569</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2968567456824</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="10">
@@ -4950,7 +4950,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
         <v>41.77557929797318</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.305065052698</v>
+        <v>2002.00091213729</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.342548112286</v>
+        <v>2002.00091213729</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.076849505535</v>
+        <v>1643.735213530539</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.288596907291</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F11" t="n">
-        <v>809.3026921176836</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G11" t="n">
-        <v>392.2149103541111</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662052</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
         <v>73.99179512662052</v>
@@ -5044,22 +5044,22 @@
         <v>262.6316941403566</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604015</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.9120654066</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389911</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
         <v>3699.589756331025</v>
@@ -5068,25 +5068,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>3677.612754095035</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>3462.812892362746</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U11" t="n">
-        <v>3462.812892362746</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V11" t="n">
-        <v>3462.812892362746</v>
+        <v>3114.835165732606</v>
       </c>
       <c r="W11" t="n">
-        <v>3110.044237092631</v>
+        <v>2762.066510462491</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.044237092631</v>
+        <v>2388.600752201412</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.904905116819</v>
+        <v>2388.600752201412</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>73.99179512662052</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662052</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4201994324298</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L12" t="n">
-        <v>907.7817392985476</v>
+        <v>843.6704145912394</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.327088765651</v>
+        <v>1484.215764058343</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.497760227163</v>
+        <v>2157.421456311125</v>
       </c>
       <c r="O12" t="n">
         <v>2316.933768979885</v>
@@ -5223,28 +5223,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>943.4485153053654</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>736.0082305577707</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>736.0082305577707</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>446.8560541354505</v>
+        <v>1027.731469097725</v>
       </c>
       <c r="V13" t="n">
-        <v>363.4089651635811</v>
+        <v>773.0469808918382</v>
       </c>
       <c r="W13" t="n">
-        <v>73.99179512662052</v>
+        <v>483.6298108548776</v>
       </c>
       <c r="X13" t="n">
-        <v>73.99179512662052</v>
+        <v>255.6402599568602</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.99179512662052</v>
+        <v>255.6402599568602</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1553.356643322678</v>
+        <v>1924.678223539702</v>
       </c>
       <c r="C14" t="n">
-        <v>1553.356643322678</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D14" t="n">
-        <v>1195.090944715928</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E14" t="n">
-        <v>809.3026921176836</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F14" t="n">
-        <v>809.3026921176836</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
         <v>73.9917951266205</v>
@@ -5314,16 +5314,16 @@
         <v>3074.883153840715</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497144</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="W14" t="n">
-        <v>2391.05161122703</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.58585296595</v>
+        <v>2701.417395579635</v>
       </c>
       <c r="Y14" t="n">
-        <v>1627.446520990138</v>
+        <v>2311.278063603823</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266205</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K15" t="n">
-        <v>157.3616934996501</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L15" t="n">
-        <v>661.7232333657679</v>
+        <v>843.6704145912394</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.268582832872</v>
+        <v>1484.215764058343</v>
       </c>
       <c r="N15" t="n">
-        <v>1975.474275085654</v>
+        <v>2157.421456311125</v>
       </c>
       <c r="O15" t="n">
-        <v>2524.910283838376</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.336852567651</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>351.4398251137724</v>
+        <v>370.9983820368666</v>
       </c>
       <c r="C16" t="n">
-        <v>182.5036421858655</v>
+        <v>370.9983820368666</v>
       </c>
       <c r="D16" t="n">
-        <v>182.5036421858655</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="E16" t="n">
-        <v>182.5036421858655</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F16" t="n">
-        <v>182.5036421858655</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>182.5036421858655</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
         <v>73.9917951266205</v>
@@ -5463,25 +5463,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>866.4861918383681</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>640.856995150733</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>640.856995150733</v>
+        <v>807.3313350729932</v>
       </c>
       <c r="V16" t="n">
-        <v>640.856995150733</v>
+        <v>552.6468468671063</v>
       </c>
       <c r="W16" t="n">
-        <v>351.4398251137724</v>
+        <v>552.6468468671063</v>
       </c>
       <c r="X16" t="n">
-        <v>351.4398251137724</v>
+        <v>552.6468468671063</v>
       </c>
       <c r="Y16" t="n">
-        <v>351.4398251137724</v>
+        <v>552.6468468671063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2333.305065052698</v>
+        <v>2035.910253889014</v>
       </c>
       <c r="C17" t="n">
-        <v>1964.342548112286</v>
+        <v>1666.947736948603</v>
       </c>
       <c r="D17" t="n">
-        <v>1606.076849505535</v>
+        <v>1308.682038341852</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.288596907291</v>
+        <v>922.8937857436081</v>
       </c>
       <c r="F17" t="n">
-        <v>809.3026921176836</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="G17" t="n">
-        <v>392.2149103541111</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662052</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
         <v>73.99179512662052</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604015</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389911</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O17" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
         <v>3699.589756331025</v>
@@ -5542,25 +5542,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>3328.574857095565</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="V17" t="n">
-        <v>3446.139318648014</v>
+        <v>2775.278749223251</v>
       </c>
       <c r="W17" t="n">
-        <v>3093.370663377899</v>
+        <v>2422.510093953136</v>
       </c>
       <c r="X17" t="n">
-        <v>2719.904905116819</v>
+        <v>2422.510093953136</v>
       </c>
       <c r="Y17" t="n">
-        <v>2719.904905116819</v>
+        <v>2422.510093953136</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>192.6510469835159</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2588666468724</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>397.4884646625656</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1038.03381412967</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N18" t="n">
-        <v>1711.239506382451</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O18" t="n">
-        <v>2260.675515135174</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
         <v>2425.623396507183</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662052</v>
+        <v>671.4854326121929</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662052</v>
+        <v>671.4854326121929</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662052</v>
+        <v>521.3687931998571</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662052</v>
+        <v>373.455699617464</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662052</v>
+        <v>226.5657521195537</v>
       </c>
       <c r="G19" t="n">
         <v>73.99179512662052</v>
@@ -5703,22 +5703,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983277</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>559.1451034760075</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V19" t="n">
-        <v>304.4606152701207</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W19" t="n">
-        <v>301.9813460246378</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X19" t="n">
-        <v>73.99179512662052</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.99179512662052</v>
+        <v>853.1338974424326</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1916.217283289125</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C20" t="n">
-        <v>1547.254766348713</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D20" t="n">
-        <v>1188.989067741963</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E20" t="n">
-        <v>803.2008151437186</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F20" t="n">
-        <v>392.2149103541111</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G20" t="n">
         <v>392.2149103541111</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403562</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406599</v>
@@ -5779,25 +5779,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T20" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U20" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V20" t="n">
-        <v>3419.190868860253</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="W20" t="n">
-        <v>3066.422213590138</v>
+        <v>3346.82110106091</v>
       </c>
       <c r="X20" t="n">
-        <v>2692.956455329058</v>
+        <v>3110.044237092631</v>
       </c>
       <c r="Y20" t="n">
-        <v>2302.817123353247</v>
+        <v>2719.904905116819</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914996</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H21" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J21" t="n">
-        <v>73.9917951266205</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>141.599614789977</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>645.9611546560948</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.506504123199</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.71219637598</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2509.148205128702</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2617.837832656</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="C22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="D22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="E22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222299</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230478</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422853</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783891</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669875</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165603</v>
@@ -5937,25 +5937,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>866.4861918383679</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>640.8569951507327</v>
+        <v>907.2456297917881</v>
       </c>
       <c r="U22" t="n">
-        <v>351.7048187284125</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V22" t="n">
-        <v>301.9813460246378</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W22" t="n">
-        <v>301.9813460246378</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="X22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1860.61898185784</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C23" t="n">
-        <v>1491.656464917428</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D23" t="n">
-        <v>1133.390766310678</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E23" t="n">
-        <v>1133.390766310678</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F23" t="n">
-        <v>916.1163106049881</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G23" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616589</v>
       </c>
       <c r="H23" t="n">
-        <v>186.4495920830057</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="I23" t="n">
         <v>86.1136494318975</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826253</v>
+        <v>316.5202242826249</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885302</v>
+        <v>782.5847574885297</v>
       </c>
       <c r="L23" t="n">
-        <v>1413.055650717818</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M23" t="n">
-        <v>2131.182543644156</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N23" t="n">
-        <v>2846.297482930782</v>
+        <v>2846.297482930781</v>
       </c>
       <c r="O23" t="n">
         <v>3476.37260399624</v>
@@ -6016,25 +6016,25 @@
         <v>4305.682471594875</v>
       </c>
       <c r="S23" t="n">
-        <v>4160.908930087627</v>
+        <v>4305.682471594875</v>
       </c>
       <c r="T23" t="n">
-        <v>3948.306990405679</v>
+        <v>4305.682471594875</v>
       </c>
       <c r="U23" t="n">
-        <v>3694.655454772538</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="V23" t="n">
-        <v>3363.592567428967</v>
+        <v>3842.756326460022</v>
       </c>
       <c r="W23" t="n">
-        <v>3010.823912158853</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X23" t="n">
-        <v>2637.358153897773</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y23" t="n">
-        <v>2247.218821921962</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>86.1136494318975</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8187222999258</v>
+        <v>229.6488472869305</v>
       </c>
       <c r="K24" t="n">
-        <v>214.9434958564829</v>
+        <v>601.5942054859404</v>
       </c>
       <c r="L24" t="n">
-        <v>769.5776104405987</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M24" t="n">
-        <v>1015.788813389716</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N24" t="n">
-        <v>1282.925139172344</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O24" t="n">
         <v>1895.006588831291</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.1136494318975</v>
+        <v>255.0498323598044</v>
       </c>
       <c r="C25" t="n">
         <v>86.1136494318975</v>
@@ -6183,16 +6183,16 @@
         <v>775.4695140605909</v>
       </c>
       <c r="V25" t="n">
-        <v>603.5203703668755</v>
+        <v>775.4695140605909</v>
       </c>
       <c r="W25" t="n">
-        <v>314.1032003299148</v>
+        <v>486.0523440236303</v>
       </c>
       <c r="X25" t="n">
-        <v>86.1136494318975</v>
+        <v>258.0627931256129</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.1136494318975</v>
+        <v>255.0498323598044</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>186.4495920830057</v>
       </c>
       <c r="I26" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="J26" t="n">
         <v>316.5202242826243</v>
@@ -6232,46 +6232,46 @@
         <v>782.5847574885291</v>
       </c>
       <c r="L26" t="n">
-        <v>1413.055650717817</v>
+        <v>1413.055650717818</v>
       </c>
       <c r="M26" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644157</v>
       </c>
       <c r="N26" t="n">
-        <v>2846.29748293078</v>
+        <v>2846.297482930782</v>
       </c>
       <c r="O26" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996241</v>
       </c>
       <c r="P26" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.452759614953</v>
       </c>
       <c r="Q26" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.77037037341</v>
       </c>
       <c r="R26" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594875</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.908930087624</v>
+        <v>4160.908930087627</v>
       </c>
       <c r="T26" t="n">
-        <v>4160.908930087624</v>
+        <v>3948.306990405679</v>
       </c>
       <c r="U26" t="n">
-        <v>3943.09226911113</v>
+        <v>3694.655454772538</v>
       </c>
       <c r="V26" t="n">
-        <v>3943.09226911113</v>
+        <v>3363.592567428967</v>
       </c>
       <c r="W26" t="n">
-        <v>3590.323613841016</v>
+        <v>3363.592567428967</v>
       </c>
       <c r="X26" t="n">
-        <v>3216.857855579936</v>
+        <v>2990.126809167888</v>
       </c>
       <c r="Y26" t="n">
-        <v>2826.718523604124</v>
+        <v>2599.987477192076</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G27" t="n">
         <v>221.0905542041166</v>
@@ -6302,25 +6302,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I27" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="J27" t="n">
-        <v>229.6488472869304</v>
+        <v>229.6488472869305</v>
       </c>
       <c r="K27" t="n">
-        <v>344.7835943223794</v>
+        <v>601.5942054859404</v>
       </c>
       <c r="L27" t="n">
-        <v>539.182483765481</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M27" t="n">
-        <v>1246.441699827098</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N27" t="n">
-        <v>1988.126976209845</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O27" t="n">
-        <v>2210.284729784828</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P27" t="n">
         <v>2369.252846559001</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>196.9186259250748</v>
+        <v>688.0600174007419</v>
       </c>
       <c r="C28" t="n">
-        <v>196.9186259250748</v>
+        <v>519.123834472835</v>
       </c>
       <c r="D28" t="n">
-        <v>196.9186259250748</v>
+        <v>519.123834472835</v>
       </c>
       <c r="E28" t="n">
-        <v>196.9186259250748</v>
+        <v>519.123834472835</v>
       </c>
       <c r="F28" t="n">
-        <v>196.9186259250748</v>
+        <v>372.2338869749246</v>
       </c>
       <c r="G28" t="n">
-        <v>196.9186259250748</v>
+        <v>203.8522646237893</v>
       </c>
       <c r="H28" t="n">
-        <v>196.9186259250748</v>
+        <v>203.8522646237893</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="J28" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="K28" t="n">
-        <v>212.8076375348879</v>
+        <v>212.807637534888</v>
       </c>
       <c r="L28" t="n">
-        <v>430.4587576962465</v>
+        <v>430.4587576962466</v>
       </c>
       <c r="M28" t="n">
-        <v>670.3304700620231</v>
+        <v>670.3304700620232</v>
       </c>
       <c r="N28" t="n">
-        <v>909.9331856692337</v>
+        <v>909.9331856692338</v>
       </c>
       <c r="O28" t="n">
         <v>1115.228778841303</v>
@@ -6408,28 +6408,28 @@
         <v>1289.276287324573</v>
       </c>
       <c r="R28" t="n">
-        <v>1168.92515553596</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="S28" t="n">
-        <v>965.4098873949436</v>
+        <v>1090.501061374512</v>
       </c>
       <c r="T28" t="n">
-        <v>740.7430056812739</v>
+        <v>1090.501061374512</v>
       </c>
       <c r="U28" t="n">
-        <v>451.6031141309617</v>
+        <v>1090.501061374512</v>
       </c>
       <c r="V28" t="n">
-        <v>196.9186259250748</v>
+        <v>1090.501061374512</v>
       </c>
       <c r="W28" t="n">
-        <v>196.9186259250748</v>
+        <v>1090.501061374512</v>
       </c>
       <c r="X28" t="n">
-        <v>196.9186259250748</v>
+        <v>1090.501061374512</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.9186259250748</v>
+        <v>869.7084822309816</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2217.994463047033</v>
+        <v>2005.392523365088</v>
       </c>
       <c r="C29" t="n">
-        <v>1849.031946106621</v>
+        <v>1636.430006424677</v>
       </c>
       <c r="D29" t="n">
-        <v>1490.766247499871</v>
+        <v>1278.164307817926</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.977994901626</v>
+        <v>1278.164307817926</v>
       </c>
       <c r="F29" t="n">
-        <v>693.9920901120188</v>
+        <v>867.1784030283186</v>
       </c>
       <c r="G29" t="n">
-        <v>277.4064036197977</v>
+        <v>450.5927165360976</v>
       </c>
       <c r="H29" t="n">
-        <v>186.4495920830057</v>
+        <v>137.5116845063362</v>
       </c>
       <c r="I29" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="J29" t="n">
-        <v>316.5202242826243</v>
+        <v>316.5202242826253</v>
       </c>
       <c r="K29" t="n">
-        <v>782.5847574885291</v>
+        <v>782.5847574885302</v>
       </c>
       <c r="L29" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717818</v>
       </c>
       <c r="M29" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644156</v>
       </c>
       <c r="N29" t="n">
-        <v>2846.297482930779</v>
+        <v>2846.297482930782</v>
       </c>
       <c r="O29" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.37260399624</v>
       </c>
       <c r="P29" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.452759614953</v>
       </c>
       <c r="Q29" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.77037037341</v>
       </c>
       <c r="R29" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594875</v>
       </c>
       <c r="S29" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594875</v>
       </c>
       <c r="T29" t="n">
-        <v>4305.682471594872</v>
+        <v>4093.080531912928</v>
       </c>
       <c r="U29" t="n">
-        <v>4052.030935961731</v>
+        <v>3839.428996279787</v>
       </c>
       <c r="V29" t="n">
-        <v>3720.968048618161</v>
+        <v>3508.366108936216</v>
       </c>
       <c r="W29" t="n">
-        <v>3368.199393348046</v>
+        <v>3155.597453666102</v>
       </c>
       <c r="X29" t="n">
-        <v>2994.733635086966</v>
+        <v>2782.131695405022</v>
       </c>
       <c r="Y29" t="n">
-        <v>2604.594303111155</v>
+        <v>2391.99236342921</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G30" t="n">
         <v>221.0905542041166</v>
@@ -6539,28 +6539,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I30" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="J30" t="n">
-        <v>104.8187222999257</v>
+        <v>229.6488472869305</v>
       </c>
       <c r="K30" t="n">
-        <v>214.9434958564828</v>
+        <v>601.5942054859404</v>
       </c>
       <c r="L30" t="n">
-        <v>409.3423852995845</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M30" t="n">
-        <v>1064.494518601627</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N30" t="n">
-        <v>1806.179794984373</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.261244643319</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P30" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q30" t="n">
         <v>2633.576141175236</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>257.0011785180417</v>
+        <v>240.3172045530546</v>
       </c>
       <c r="C31" t="n">
-        <v>88.0649955901348</v>
+        <v>240.3172045530546</v>
       </c>
       <c r="D31" t="n">
-        <v>88.0649955901348</v>
+        <v>240.3172045530546</v>
       </c>
       <c r="E31" t="n">
-        <v>88.0649955901348</v>
+        <v>240.3172045530546</v>
       </c>
       <c r="F31" t="n">
-        <v>88.0649955901348</v>
+        <v>240.3172045530546</v>
       </c>
       <c r="G31" t="n">
-        <v>88.0649955901348</v>
+        <v>240.3172045530546</v>
       </c>
       <c r="H31" t="n">
-        <v>88.0649955901348</v>
+        <v>88.06499559013486</v>
       </c>
       <c r="I31" t="n">
-        <v>88.0649955901348</v>
+        <v>88.06499559013486</v>
       </c>
       <c r="J31" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="K31" t="n">
-        <v>212.8076375348879</v>
+        <v>212.807637534888</v>
       </c>
       <c r="L31" t="n">
-        <v>430.4587576962465</v>
+        <v>430.4587576962466</v>
       </c>
       <c r="M31" t="n">
-        <v>670.3304700620231</v>
+        <v>670.3304700620232</v>
       </c>
       <c r="N31" t="n">
-        <v>909.9331856692337</v>
+        <v>909.9331856692338</v>
       </c>
       <c r="O31" t="n">
         <v>1115.228778841303</v>
@@ -6645,28 +6645,28 @@
         <v>1289.276287324573</v>
       </c>
       <c r="R31" t="n">
-        <v>1289.276287324573</v>
+        <v>1168.92515553596</v>
       </c>
       <c r="S31" t="n">
-        <v>1085.761019183556</v>
+        <v>965.4098873949436</v>
       </c>
       <c r="T31" t="n">
-        <v>861.0941374698864</v>
+        <v>740.7430056812739</v>
       </c>
       <c r="U31" t="n">
-        <v>571.9542459195743</v>
+        <v>451.6031141309617</v>
       </c>
       <c r="V31" t="n">
-        <v>317.2697577136875</v>
+        <v>451.6031141309617</v>
       </c>
       <c r="W31" t="n">
-        <v>257.0011785180417</v>
+        <v>451.6031141309617</v>
       </c>
       <c r="X31" t="n">
-        <v>257.0011785180417</v>
+        <v>451.6031141309617</v>
       </c>
       <c r="Y31" t="n">
-        <v>257.0011785180417</v>
+        <v>240.3172045530546</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2339.782740888894</v>
+        <v>2404.283808883358</v>
       </c>
       <c r="C32" t="n">
-        <v>1970.820223948482</v>
+        <v>2035.321291942946</v>
       </c>
       <c r="D32" t="n">
-        <v>1612.554525341732</v>
+        <v>1677.055593336196</v>
       </c>
       <c r="E32" t="n">
-        <v>1226.766272743487</v>
+        <v>1291.267340737951</v>
       </c>
       <c r="F32" t="n">
-        <v>815.7803679538799</v>
+        <v>880.2814359483439</v>
       </c>
       <c r="G32" t="n">
-        <v>399.1946814616589</v>
+        <v>463.6957494561228</v>
       </c>
       <c r="H32" t="n">
-        <v>86.1136494318975</v>
+        <v>150.6147174263614</v>
       </c>
       <c r="I32" t="n">
         <v>86.1136494318975</v>
@@ -6703,7 +6703,7 @@
         <v>316.5202242826253</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885302</v>
+        <v>782.5847574885306</v>
       </c>
       <c r="L32" t="n">
         <v>1413.055650717818</v>
@@ -6715,7 +6715,7 @@
         <v>2846.297482930782</v>
       </c>
       <c r="O32" t="n">
-        <v>3476.37260399624</v>
+        <v>3476.372603996241</v>
       </c>
       <c r="P32" t="n">
         <v>3976.452759614953</v>
@@ -6727,25 +6727,25 @@
         <v>4305.682471594875</v>
       </c>
       <c r="S32" t="n">
-        <v>4305.682471594875</v>
+        <v>4160.908930087627</v>
       </c>
       <c r="T32" t="n">
-        <v>4093.080531912928</v>
+        <v>4160.908930087627</v>
       </c>
       <c r="U32" t="n">
-        <v>4093.080531912928</v>
+        <v>3907.257394454486</v>
       </c>
       <c r="V32" t="n">
-        <v>3842.756326460022</v>
+        <v>3907.257394454486</v>
       </c>
       <c r="W32" t="n">
-        <v>3489.987671189907</v>
+        <v>3554.488739184371</v>
       </c>
       <c r="X32" t="n">
-        <v>3116.521912928828</v>
+        <v>3181.022980923291</v>
       </c>
       <c r="Y32" t="n">
-        <v>2726.382580953016</v>
+        <v>2790.88364894748</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>86.1136494318975</v>
       </c>
       <c r="J33" t="n">
-        <v>104.8187222999258</v>
+        <v>229.6488472869305</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9434958564829</v>
+        <v>601.5942054859404</v>
       </c>
       <c r="L33" t="n">
-        <v>769.5776104405987</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M33" t="n">
-        <v>1015.788813389716</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N33" t="n">
-        <v>1282.925139172344</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O33" t="n">
         <v>1895.006588831291</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>350.7422121216996</v>
+        <v>558.8154663165257</v>
       </c>
       <c r="C34" t="n">
-        <v>350.7422121216996</v>
+        <v>558.8154663165257</v>
       </c>
       <c r="D34" t="n">
-        <v>350.7422121216996</v>
+        <v>408.6988269041899</v>
       </c>
       <c r="E34" t="n">
-        <v>350.7422121216996</v>
+        <v>408.6988269041899</v>
       </c>
       <c r="F34" t="n">
-        <v>203.8522646237893</v>
+        <v>408.6988269041899</v>
       </c>
       <c r="G34" t="n">
-        <v>203.8522646237893</v>
+        <v>240.3172045530546</v>
       </c>
       <c r="H34" t="n">
-        <v>203.8522646237893</v>
+        <v>88.06499559013486</v>
       </c>
       <c r="I34" t="n">
-        <v>86.1136494318975</v>
+        <v>88.06499559013486</v>
       </c>
       <c r="J34" t="n">
         <v>86.1136494318975</v>
@@ -6882,28 +6882,28 @@
         <v>1289.276287324573</v>
       </c>
       <c r="R34" t="n">
-        <v>1289.276287324573</v>
+        <v>1168.92515553596</v>
       </c>
       <c r="S34" t="n">
-        <v>1085.761019183556</v>
+        <v>965.4098873949436</v>
       </c>
       <c r="T34" t="n">
-        <v>1085.761019183556</v>
+        <v>961.2565102902955</v>
       </c>
       <c r="U34" t="n">
-        <v>1085.761019183556</v>
+        <v>961.2565102902955</v>
       </c>
       <c r="V34" t="n">
-        <v>831.0765309776692</v>
+        <v>961.2565102902955</v>
       </c>
       <c r="W34" t="n">
-        <v>541.6593609407087</v>
+        <v>961.2565102902955</v>
       </c>
       <c r="X34" t="n">
-        <v>350.7422121216996</v>
+        <v>961.2565102902955</v>
       </c>
       <c r="Y34" t="n">
-        <v>350.7422121216996</v>
+        <v>740.4639311467654</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2054.330430941758</v>
+        <v>1860.61898185784</v>
       </c>
       <c r="C35" t="n">
-        <v>1685.367914001346</v>
+        <v>1491.656464917428</v>
       </c>
       <c r="D35" t="n">
-        <v>1327.102215394596</v>
+        <v>1133.390766310678</v>
       </c>
       <c r="E35" t="n">
-        <v>1327.102215394596</v>
+        <v>1133.390766310678</v>
       </c>
       <c r="F35" t="n">
-        <v>916.1163106049881</v>
+        <v>722.4048615210702</v>
       </c>
       <c r="G35" t="n">
-        <v>499.5306241127671</v>
+        <v>305.8191750288491</v>
       </c>
       <c r="H35" t="n">
         <v>186.4495920830057</v>
       </c>
       <c r="I35" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="J35" t="n">
-        <v>316.5202242826243</v>
+        <v>316.5202242826253</v>
       </c>
       <c r="K35" t="n">
-        <v>782.5847574885291</v>
+        <v>782.5847574885302</v>
       </c>
       <c r="L35" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717818</v>
       </c>
       <c r="M35" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644156</v>
       </c>
       <c r="N35" t="n">
-        <v>2846.297482930779</v>
+        <v>2846.297482930782</v>
       </c>
       <c r="O35" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.37260399624</v>
       </c>
       <c r="P35" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.452759614953</v>
       </c>
       <c r="Q35" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.77037037341</v>
       </c>
       <c r="R35" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594875</v>
       </c>
       <c r="S35" t="n">
-        <v>4160.908930087624</v>
+        <v>4160.908930087627</v>
       </c>
       <c r="T35" t="n">
-        <v>4142.018439489598</v>
+        <v>3948.306990405679</v>
       </c>
       <c r="U35" t="n">
-        <v>3888.366903856457</v>
+        <v>3694.655454772538</v>
       </c>
       <c r="V35" t="n">
-        <v>3557.304016512886</v>
+        <v>3363.592567428967</v>
       </c>
       <c r="W35" t="n">
-        <v>3204.535361242772</v>
+        <v>3010.823912158853</v>
       </c>
       <c r="X35" t="n">
-        <v>2831.069602981692</v>
+        <v>2637.358153897773</v>
       </c>
       <c r="Y35" t="n">
-        <v>2440.93027100588</v>
+        <v>2247.218821921962</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G36" t="n">
         <v>221.0905542041166</v>
@@ -7013,28 +7013,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I36" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="J36" t="n">
-        <v>104.8187222999257</v>
+        <v>104.8187222999258</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9434958564828</v>
+        <v>476.7640804989356</v>
       </c>
       <c r="L36" t="n">
-        <v>769.5776104405987</v>
+        <v>1038.294911792462</v>
       </c>
       <c r="M36" t="n">
-        <v>1015.788813389716</v>
+        <v>1284.506114741579</v>
       </c>
       <c r="N36" t="n">
-        <v>1282.925139172344</v>
+        <v>1551.642440524207</v>
       </c>
       <c r="O36" t="n">
-        <v>1895.006588831291</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P36" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q36" t="n">
         <v>2633.576141175236</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>406.7474807459525</v>
+        <v>722.5736111717698</v>
       </c>
       <c r="C37" t="n">
-        <v>406.7474807459525</v>
+        <v>553.6374282438629</v>
       </c>
       <c r="D37" t="n">
-        <v>406.7474807459525</v>
+        <v>553.6374282438629</v>
       </c>
       <c r="E37" t="n">
-        <v>406.7474807459525</v>
+        <v>553.6374282438629</v>
       </c>
       <c r="F37" t="n">
         <v>406.7474807459525</v>
       </c>
       <c r="G37" t="n">
-        <v>238.3658583948171</v>
+        <v>238.3658583948172</v>
       </c>
       <c r="H37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="I37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="J37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.1136494318975</v>
       </c>
       <c r="K37" t="n">
-        <v>212.8076375348879</v>
+        <v>212.807637534888</v>
       </c>
       <c r="L37" t="n">
-        <v>430.4587576962465</v>
+        <v>430.4587576962466</v>
       </c>
       <c r="M37" t="n">
-        <v>670.3304700620231</v>
+        <v>670.3304700620232</v>
       </c>
       <c r="N37" t="n">
-        <v>909.9331856692337</v>
+        <v>909.9331856692338</v>
       </c>
       <c r="O37" t="n">
         <v>1115.228778841303</v>
@@ -7122,25 +7122,25 @@
         <v>1289.276287324573</v>
       </c>
       <c r="S37" t="n">
-        <v>1085.761019183556</v>
+        <v>1236.380384435752</v>
       </c>
       <c r="T37" t="n">
-        <v>861.0941374698864</v>
+        <v>1011.713502722082</v>
       </c>
       <c r="U37" t="n">
-        <v>861.0941374698864</v>
+        <v>722.5736111717698</v>
       </c>
       <c r="V37" t="n">
-        <v>861.0941374698864</v>
+        <v>722.5736111717698</v>
       </c>
       <c r="W37" t="n">
-        <v>627.5400598894827</v>
+        <v>722.5736111717698</v>
       </c>
       <c r="X37" t="n">
-        <v>627.5400598894827</v>
+        <v>722.5736111717698</v>
       </c>
       <c r="Y37" t="n">
-        <v>406.7474807459525</v>
+        <v>722.5736111717698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2073.220921539787</v>
+        <v>1981.517042282143</v>
       </c>
       <c r="C38" t="n">
-        <v>2071.156166599591</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="D38" t="n">
-        <v>1712.89046799284</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E38" t="n">
-        <v>1327.102215394596</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F38" t="n">
-        <v>916.1163106049881</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G38" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616589</v>
       </c>
       <c r="H38" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I38" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826253</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K38" t="n">
-        <v>782.5847574885302</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L38" t="n">
-        <v>1413.055650717818</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M38" t="n">
-        <v>2131.182543644156</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N38" t="n">
-        <v>2846.297482930782</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O38" t="n">
-        <v>3476.37260399624</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P38" t="n">
-        <v>3976.452759614953</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q38" t="n">
-        <v>4274.77037037341</v>
+        <v>4274.770370373408</v>
       </c>
       <c r="R38" t="n">
-        <v>4305.682471594875</v>
+        <v>4305.682471594873</v>
       </c>
       <c r="S38" t="n">
-        <v>4160.908930087627</v>
+        <v>4281.806990511931</v>
       </c>
       <c r="T38" t="n">
-        <v>4160.908930087627</v>
+        <v>4069.205050829983</v>
       </c>
       <c r="U38" t="n">
-        <v>3907.257394454486</v>
+        <v>3815.553515196842</v>
       </c>
       <c r="V38" t="n">
-        <v>3576.194507110915</v>
+        <v>3484.490627853271</v>
       </c>
       <c r="W38" t="n">
-        <v>3223.425851840801</v>
+        <v>3131.721972583157</v>
       </c>
       <c r="X38" t="n">
-        <v>2849.960093579721</v>
+        <v>2758.256214322077</v>
       </c>
       <c r="Y38" t="n">
-        <v>2459.820761603909</v>
+        <v>2368.116882346265</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I39" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J39" t="n">
-        <v>104.8187222999258</v>
+        <v>229.6488472869305</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9434958564829</v>
+        <v>601.5942054859404</v>
       </c>
       <c r="L39" t="n">
-        <v>769.5776104405987</v>
+        <v>795.9930949290422</v>
       </c>
       <c r="M39" t="n">
-        <v>1015.788813389716</v>
+        <v>1042.20429787816</v>
       </c>
       <c r="N39" t="n">
-        <v>1282.925139172344</v>
+        <v>1783.889574260906</v>
       </c>
       <c r="O39" t="n">
-        <v>1895.006588831291</v>
+        <v>2006.04732783589</v>
       </c>
       <c r="P39" t="n">
         <v>2369.252846559001</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.408365365426</v>
+        <v>573.5480941232755</v>
       </c>
       <c r="C40" t="n">
-        <v>402.408365365426</v>
+        <v>404.6119111953686</v>
       </c>
       <c r="D40" t="n">
-        <v>402.408365365426</v>
+        <v>254.4952717830328</v>
       </c>
       <c r="E40" t="n">
-        <v>254.4952717830329</v>
+        <v>254.4952717830328</v>
       </c>
       <c r="F40" t="n">
-        <v>254.4952717830329</v>
+        <v>254.4952717830328</v>
       </c>
       <c r="G40" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="H40" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I40" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="J40" t="n">
-        <v>86.1136494318975</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="K40" t="n">
         <v>212.807637534888</v>
@@ -7341,43 +7341,43 @@
         <v>430.4587576962466</v>
       </c>
       <c r="M40" t="n">
-        <v>670.3304700620232</v>
+        <v>670.3304700620233</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692338</v>
+        <v>909.933185669234</v>
       </c>
       <c r="O40" t="n">
-        <v>1115.228778841303</v>
+        <v>1115.228778841304</v>
       </c>
       <c r="P40" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.37394248078</v>
       </c>
       <c r="Q40" t="n">
         <v>1289.276287324573</v>
       </c>
       <c r="R40" t="n">
-        <v>1168.92515553596</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="S40" t="n">
-        <v>965.4098873949436</v>
+        <v>1085.761019183557</v>
       </c>
       <c r="T40" t="n">
-        <v>740.7430056812739</v>
+        <v>862.9652641602361</v>
       </c>
       <c r="U40" t="n">
-        <v>740.7430056812739</v>
+        <v>862.9652641602361</v>
       </c>
       <c r="V40" t="n">
-        <v>740.7430056812739</v>
+        <v>862.9652641602361</v>
       </c>
       <c r="W40" t="n">
-        <v>740.7430056812739</v>
+        <v>573.5480941232755</v>
       </c>
       <c r="X40" t="n">
-        <v>740.7430056812739</v>
+        <v>573.5480941232755</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.0568301956657</v>
+        <v>573.5480941232755</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2339.782740888894</v>
+        <v>1860.618981857838</v>
       </c>
       <c r="C41" t="n">
-        <v>1970.820223948482</v>
+        <v>1491.656464917426</v>
       </c>
       <c r="D41" t="n">
-        <v>1612.554525341732</v>
+        <v>1133.390766310676</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.766272743487</v>
+        <v>747.6025137124316</v>
       </c>
       <c r="F41" t="n">
-        <v>815.7803679538799</v>
+        <v>336.616608922824</v>
       </c>
       <c r="G41" t="n">
-        <v>399.1946814616589</v>
+        <v>336.616608922824</v>
       </c>
       <c r="H41" t="n">
         <v>86.11364943189747</v>
@@ -7441,22 +7441,22 @@
         <v>4160.908930087625</v>
       </c>
       <c r="T41" t="n">
-        <v>4160.908930087625</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U41" t="n">
-        <v>4160.908930087625</v>
+        <v>3694.655454772536</v>
       </c>
       <c r="V41" t="n">
-        <v>3829.846042744054</v>
+        <v>3363.592567428966</v>
       </c>
       <c r="W41" t="n">
-        <v>3477.07738747394</v>
+        <v>3010.823912158851</v>
       </c>
       <c r="X41" t="n">
-        <v>3116.521912928828</v>
+        <v>2637.358153897771</v>
       </c>
       <c r="Y41" t="n">
-        <v>2726.382580953016</v>
+        <v>2247.21882192196</v>
       </c>
     </row>
     <row r="42">
@@ -7505,10 +7505,10 @@
         <v>1551.642440524208</v>
       </c>
       <c r="O42" t="n">
-        <v>1895.006588831291</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P42" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q42" t="n">
         <v>2633.576141175236</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>451.6031141309622</v>
+        <v>597.4180733138426</v>
       </c>
       <c r="C43" t="n">
-        <v>451.6031141309622</v>
+        <v>428.4818903859357</v>
       </c>
       <c r="D43" t="n">
-        <v>451.6031141309622</v>
+        <v>278.3652509735999</v>
       </c>
       <c r="E43" t="n">
-        <v>451.6031141309622</v>
+        <v>278.3652509735999</v>
       </c>
       <c r="F43" t="n">
-        <v>451.6031141309622</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="G43" t="n">
-        <v>356.1044735867089</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H43" t="n">
         <v>203.8522646237892</v>
@@ -7593,28 +7593,28 @@
         <v>1289.276287324573</v>
       </c>
       <c r="R43" t="n">
-        <v>1168.925155535961</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="S43" t="n">
-        <v>965.409887394944</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="T43" t="n">
-        <v>740.7430056812743</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="U43" t="n">
-        <v>451.6031141309622</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="V43" t="n">
-        <v>451.6031141309622</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="W43" t="n">
-        <v>451.6031141309622</v>
+        <v>999.8591172876124</v>
       </c>
       <c r="X43" t="n">
-        <v>451.6031141309622</v>
+        <v>999.8591172876124</v>
       </c>
       <c r="Y43" t="n">
-        <v>451.6031141309622</v>
+        <v>779.0665381440823</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2440.118683540002</v>
+        <v>1981.517042282143</v>
       </c>
       <c r="C44" t="n">
-        <v>2071.156166599591</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="D44" t="n">
-        <v>1712.89046799284</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E44" t="n">
-        <v>1327.102215394596</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F44" t="n">
-        <v>916.1163106049881</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G44" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616589</v>
       </c>
       <c r="H44" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189747</v>
       </c>
       <c r="I44" t="n">
         <v>86.11364943189747</v>
       </c>
       <c r="J44" t="n">
-        <v>316.5202242826244</v>
+        <v>316.5202242826243</v>
       </c>
       <c r="K44" t="n">
         <v>782.5847574885292</v>
       </c>
       <c r="L44" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M44" t="n">
         <v>2131.182543644155</v>
@@ -7663,13 +7663,13 @@
         <v>2846.29748293078</v>
       </c>
       <c r="O44" t="n">
-        <v>3476.372603996238</v>
+        <v>3476.372603996239</v>
       </c>
       <c r="P44" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.452759614952</v>
       </c>
       <c r="Q44" t="n">
-        <v>4274.770370373408</v>
+        <v>4274.770370373409</v>
       </c>
       <c r="R44" t="n">
         <v>4305.682471594873</v>
@@ -7681,19 +7681,19 @@
         <v>3948.306990405677</v>
       </c>
       <c r="U44" t="n">
-        <v>3943.09226911113</v>
+        <v>3694.655454772536</v>
       </c>
       <c r="V44" t="n">
-        <v>3943.09226911113</v>
+        <v>3363.592567428966</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.323613841016</v>
+        <v>3010.823912158851</v>
       </c>
       <c r="X44" t="n">
-        <v>3216.857855579936</v>
+        <v>2637.358153897771</v>
       </c>
       <c r="Y44" t="n">
-        <v>2826.718523604124</v>
+        <v>2368.116882346265</v>
       </c>
     </row>
     <row r="45">
@@ -7733,7 +7733,7 @@
         <v>601.5942054859404</v>
       </c>
       <c r="L45" t="n">
-        <v>795.9930949290422</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M45" t="n">
         <v>1405.712509473678</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.11364943189747</v>
+        <v>456.0347375314136</v>
       </c>
       <c r="C46" t="n">
-        <v>86.11364943189747</v>
+        <v>456.0347375314136</v>
       </c>
       <c r="D46" t="n">
-        <v>86.11364943189747</v>
+        <v>456.0347375314136</v>
       </c>
       <c r="E46" t="n">
-        <v>86.11364943189747</v>
+        <v>456.0347375314136</v>
       </c>
       <c r="F46" t="n">
-        <v>86.11364943189747</v>
+        <v>456.0347375314136</v>
       </c>
       <c r="G46" t="n">
-        <v>86.11364943189747</v>
+        <v>287.6531151802782</v>
       </c>
       <c r="H46" t="n">
-        <v>86.11364943189747</v>
+        <v>135.4009062173585</v>
       </c>
       <c r="I46" t="n">
         <v>86.11364943189747</v>
@@ -7836,22 +7836,22 @@
         <v>1289.276287324573</v>
       </c>
       <c r="T46" t="n">
-        <v>1064.609405610903</v>
+        <v>1289.276287324573</v>
       </c>
       <c r="U46" t="n">
-        <v>775.4695140605913</v>
+        <v>1000.136395774261</v>
       </c>
       <c r="V46" t="n">
-        <v>520.7850258547045</v>
+        <v>745.4519075683742</v>
       </c>
       <c r="W46" t="n">
-        <v>231.3678558177439</v>
+        <v>456.0347375314136</v>
       </c>
       <c r="X46" t="n">
-        <v>86.11364943189747</v>
+        <v>456.0347375314136</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.11364943189747</v>
+        <v>456.0347375314136</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928696</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>186.2236012992132</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>20.72114122105839</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928696</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>15.9212916259324</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>186.2236012992132</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617264096</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>56.8265190350622</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928724</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617264096</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>15.92129162593335</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>363.8739647889033</v>
+        <v>367.1800117126456</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504525</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>5.060579271607907</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>367.1800117126456</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>367.1800117126456</v>
       </c>
       <c r="M30" t="n">
-        <v>413.0716468211361</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>363.8739647889033</v>
+        <v>367.1800117126456</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>363.8739647889033</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>332.5079894854444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>363.8739647889033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>206.3004060090286</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>122.4307017495948</v>
+        <v>332.5079894854439</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729815</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>367.1800117126451</v>
       </c>
       <c r="M45" t="n">
-        <v>367.1800117126451</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>81.21426050913669</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.8956549145095</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>240.5275972447417</v>
       </c>
       <c r="V13" t="n">
-        <v>169.5250252416773</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>309.3848627726953</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>89.49968902265039</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938906</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>45.28536808058003</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>123.2665578794171</v>
@@ -23703,19 +23703,19 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>22.33146456025713</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.83632516395321</v>
+        <v>31.14389789884439</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>15.87255913156665</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23943,22 +23943,22 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>284.068521783563</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
@@ -24028,13 +24028,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>204.8102470022104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>135.3220053498728</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.6958418817692</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677915</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>58.35886639452585</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>202.9114053470911</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>191.7743345930788</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.33258322459716</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>120.5703950634393</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>81.90799106704975</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>215.6018221939444</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>224.4637359479276</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>35.4765259100806</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I28" t="n">
-        <v>6.864302311727201</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>1.931832696654979</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.692641769046048</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>219.9029782880396</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>48.44852850090288</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T29" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>166.697806127624</v>
       </c>
       <c r="H31" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>116.5612290399728</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>226.8571049329017</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>9.411602869966686</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459716</v>
+        <v>35.47652591007786</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>79.931295071758</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696654979</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>222.420212896533</v>
+        <v>218.3083695629314</v>
       </c>
       <c r="U34" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>36.70167805821819</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>191.7743345930788</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>191.774334593082</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>149.1131715996737</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>55.30446153199134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>363.228784380213</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>119.6890798200629</v>
       </c>
       <c r="T38" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25572,7 +25572,7 @@
         <v>116.5612290399728</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696654979</v>
+        <v>1.931832696654965</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.852415423445706</v>
       </c>
       <c r="U40" t="n">
         <v>286.248492634809</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.46533962134274</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>61.95229181344646</v>
       </c>
       <c r="I41" t="n">
         <v>99.33258322459714</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>12.78118087880796</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>71.65319153661864</v>
       </c>
       <c r="G43" t="n">
-        <v>72.15415198881324</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.33258322459714</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>245.9524461952076</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>119.6890798200626</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>116.5612290399728</v>
+        <v>67.76684482236644</v>
       </c>
       <c r="J46" t="n">
         <v>1.931832696654965</v>
@@ -26076,7 +26076,7 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4202128965329</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>81.90799106704921</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740560.6131479326</v>
+        <v>740560.6131479327</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794750.6510930088</v>
+        <v>794750.6510930092</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>794750.6510930088</v>
+        <v>794750.6510930092</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>794750.6510930092</v>
+        <v>794750.6510930093</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>794750.6510930088</v>
+        <v>794750.6510930092</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794750.6510930092</v>
+        <v>794750.651093009</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794750.651093009</v>
+        <v>794750.6510930089</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>794750.651093009</v>
+        <v>794750.6510930089</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
+        <v>489716.7007553185</v>
+      </c>
+      <c r="F2" t="n">
         <v>489716.7007553186</v>
-      </c>
-      <c r="F2" t="n">
-        <v>489716.7007553187</v>
       </c>
       <c r="G2" t="n">
         <v>489716.7007553187</v>
       </c>
       <c r="H2" t="n">
-        <v>489716.7007553187</v>
+        <v>489716.7007553186</v>
       </c>
       <c r="I2" t="n">
-        <v>530050.914816406</v>
+        <v>530050.9148164061</v>
       </c>
       <c r="J2" t="n">
         <v>530050.914816406</v>
       </c>
       <c r="K2" t="n">
-        <v>530050.9148164059</v>
+        <v>530050.9148164063</v>
       </c>
       <c r="L2" t="n">
-        <v>530050.9148164061</v>
+        <v>530050.9148164064</v>
       </c>
       <c r="M2" t="n">
-        <v>530050.9148164059</v>
+        <v>530050.9148164064</v>
       </c>
       <c r="N2" t="n">
+        <v>530050.914816406</v>
+      </c>
+      <c r="O2" t="n">
         <v>530050.9148164063</v>
       </c>
-      <c r="O2" t="n">
-        <v>530050.9148164061</v>
-      </c>
       <c r="P2" t="n">
-        <v>530050.914816406</v>
+        <v>530050.9148164063</v>
       </c>
     </row>
     <row r="3">
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133368.5290586873</v>
+        <v>133368.5290586872</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910605</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>170426.416563711</v>
+        <v>170426.4165637111</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>48842.04543192601</v>
+        <v>48842.045431926</v>
       </c>
       <c r="F4" t="n">
-        <v>48842.04543192601</v>
+        <v>48842.045431926</v>
       </c>
       <c r="G4" t="n">
         <v>48842.045431926</v>
       </c>
       <c r="H4" t="n">
-        <v>48842.04543192602</v>
+        <v>48842.045431926</v>
       </c>
       <c r="I4" t="n">
         <v>46084.63535700789</v>
       </c>
       <c r="J4" t="n">
-        <v>46084.63535700789</v>
+        <v>46084.63535700792</v>
       </c>
       <c r="K4" t="n">
         <v>46084.63535700789</v>
@@ -26459,7 +26459,7 @@
         <v>46084.63535700788</v>
       </c>
       <c r="P4" t="n">
-        <v>46084.63535700789</v>
+        <v>46084.63535700788</v>
       </c>
     </row>
     <row r="5">
@@ -26487,25 +26487,25 @@
         <v>69171.54328360138</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="I5" t="n">
         <v>81079.66231700635</v>
       </c>
       <c r="J5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700635</v>
       </c>
       <c r="K5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700635</v>
       </c>
       <c r="L5" t="n">
         <v>81079.66231700635</v>
       </c>
       <c r="M5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700635</v>
       </c>
       <c r="N5" t="n">
-        <v>81079.66231700635</v>
+        <v>81079.66231700634</v>
       </c>
       <c r="O5" t="n">
         <v>81079.66231700634</v>
@@ -26524,46 +26524,46 @@
         <v>136874.0512943019</v>
       </c>
       <c r="C6" t="n">
-        <v>217643.4828258495</v>
+        <v>217643.4828258496</v>
       </c>
       <c r="D6" t="n">
-        <v>217643.4828258495</v>
+        <v>217643.4828258494</v>
       </c>
       <c r="E6" t="n">
-        <v>-312929.0920839885</v>
+        <v>-309653.7567682418</v>
       </c>
       <c r="F6" t="n">
-        <v>368063.8505778504</v>
+        <v>371339.1858935971</v>
       </c>
       <c r="G6" t="n">
-        <v>368063.8505778504</v>
+        <v>371339.1858935972</v>
       </c>
       <c r="H6" t="n">
-        <v>368063.8505778504</v>
+        <v>371339.1858935971</v>
       </c>
       <c r="I6" t="n">
-        <v>267269.6615893873</v>
+        <v>269293.2454342729</v>
       </c>
       <c r="J6" t="n">
-        <v>337578.2480489685</v>
+        <v>339601.8318938538</v>
       </c>
       <c r="K6" t="n">
-        <v>400638.1906480744</v>
+        <v>402661.7744929604</v>
       </c>
       <c r="L6" t="n">
-        <v>400638.1906480746</v>
+        <v>402661.7744929605</v>
       </c>
       <c r="M6" t="n">
-        <v>230211.7740843634</v>
+        <v>232235.3579292494</v>
       </c>
       <c r="N6" t="n">
-        <v>400638.1906480748</v>
+        <v>402661.7744929601</v>
       </c>
       <c r="O6" t="n">
-        <v>400638.1906480747</v>
+        <v>402661.7744929604</v>
       </c>
       <c r="P6" t="n">
-        <v>400638.1906480746</v>
+        <v>402661.7744929604</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380634</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
         <v>717.1233370992782</v>
@@ -26773,7 +26773,7 @@
         <v>717.1233370992782</v>
       </c>
       <c r="N3" t="n">
-        <v>717.1233370992782</v>
+        <v>717.1233370992783</v>
       </c>
       <c r="O3" t="n">
         <v>717.1233370992783</v>
@@ -26807,25 +26807,25 @@
         <v>924.8974390827564</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="I4" t="n">
         <v>1076.420617898719</v>
       </c>
       <c r="J4" t="n">
-        <v>1076.420617898718</v>
+        <v>1076.420617898719</v>
       </c>
       <c r="K4" t="n">
-        <v>1076.420617898718</v>
+        <v>1076.420617898719</v>
       </c>
       <c r="L4" t="n">
         <v>1076.420617898719</v>
       </c>
       <c r="M4" t="n">
+        <v>1076.420617898719</v>
+      </c>
+      <c r="N4" t="n">
         <v>1076.420617898718</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1076.420617898719</v>
       </c>
       <c r="O4" t="n">
         <v>1076.420617898718</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612148</v>
+        <v>123.6472367612147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,34 +27020,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>683.8831502050972</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>151.5231788159626</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>683.8831502050973</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>151.5231788159625</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776584</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>683.8831502050972</v>
-      </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050973</v>
+        <v>683.8831502050972</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>149.1019827542801</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>201.2949868753087</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>87.11603458920352</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>179.1139601010482</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>34.50357226344606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>120.9660550247851</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>333.2456655029306</v>
       </c>
       <c r="H5" t="n">
-        <v>321.1773062394785</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>36.99766411945029</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>175.2374997151531</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>51.30969674795439</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>147.6461627701196</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>367.940442779765</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>60.50207587874962</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27988,19 +27988,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>32.64758633250099</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28022,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198243</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
         <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651535</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779012</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>376.502430971252</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074812</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359658</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822507</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426691</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457569</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810501</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916531</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
         <v>0.1908666855358594</v>
@@ -32557,16 +32557,16 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512814</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
         <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900643</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947068</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
         <v>243.7619099671567</v>
@@ -32575,16 +32575,16 @@
         <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080781</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S21" t="n">
         <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308302</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,16 +32624,16 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.51507583820699</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784121</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490358</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790237</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
         <v>159.1099695889949</v>
@@ -32642,7 +32642,7 @@
         <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441086</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
         <v>151.2683017714133</v>
@@ -32651,19 +32651,19 @@
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104756</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937804</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522781</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>2.882907887836292</v>
       </c>
       <c r="H38" t="n">
-        <v>29.52458040630343</v>
+        <v>29.52458040630344</v>
       </c>
       <c r="I38" t="n">
         <v>111.1433063458088</v>
@@ -33897,34 +33897,34 @@
         <v>244.6832033452457</v>
       </c>
       <c r="K38" t="n">
-        <v>366.716694237356</v>
+        <v>366.7166942373561</v>
       </c>
       <c r="L38" t="n">
-        <v>454.944486509726</v>
+        <v>454.9444865097261</v>
       </c>
       <c r="M38" t="n">
         <v>506.2133996600347</v>
       </c>
       <c r="N38" t="n">
-        <v>514.4044616963496</v>
+        <v>514.4044616963497</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866774</v>
+        <v>485.7375463866775</v>
       </c>
       <c r="P38" t="n">
-        <v>414.5657579057189</v>
+        <v>414.565757905719</v>
       </c>
       <c r="Q38" t="n">
         <v>311.3216191725816</v>
       </c>
       <c r="R38" t="n">
-        <v>181.0934626092966</v>
+        <v>181.0934626092967</v>
       </c>
       <c r="S38" t="n">
         <v>65.69426349406957</v>
       </c>
       <c r="T38" t="n">
-        <v>12.61992927900337</v>
+        <v>12.61992927900338</v>
       </c>
       <c r="U38" t="n">
         <v>0.2306326310269033</v>
@@ -33970,43 +33970,43 @@
         <v>14.89722253106237</v>
       </c>
       <c r="I39" t="n">
-        <v>53.10771883235221</v>
+        <v>53.10771883235222</v>
       </c>
       <c r="J39" t="n">
         <v>145.731639664675</v>
       </c>
       <c r="K39" t="n">
-        <v>249.0785839809823</v>
+        <v>249.0785839809824</v>
       </c>
       <c r="L39" t="n">
         <v>334.9168943688658</v>
       </c>
       <c r="M39" t="n">
-        <v>390.8322187191065</v>
+        <v>390.8322187191066</v>
       </c>
       <c r="N39" t="n">
-        <v>401.1763845910386</v>
+        <v>401.1763845910387</v>
       </c>
       <c r="O39" t="n">
-        <v>366.998015732307</v>
+        <v>366.9980157323071</v>
       </c>
       <c r="P39" t="n">
-        <v>294.5482627417771</v>
+        <v>294.5482627417772</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.8977132352584</v>
+        <v>196.8977132352585</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525835</v>
+        <v>95.76979207525837</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146643</v>
       </c>
       <c r="T39" t="n">
-        <v>6.21732402636072</v>
+        <v>6.217324026360722</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1014797175140488</v>
+        <v>0.1014797175140489</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,10 +34049,10 @@
         <v>11.49748563414909</v>
       </c>
       <c r="I40" t="n">
-        <v>38.88924588728545</v>
+        <v>38.88924588728546</v>
       </c>
       <c r="J40" t="n">
-        <v>91.4273474200178</v>
+        <v>91.42734742001781</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824389</v>
@@ -34061,22 +34061,22 @@
         <v>192.2595910642885</v>
       </c>
       <c r="M40" t="n">
-        <v>202.7107819934893</v>
+        <v>202.7107819934894</v>
       </c>
       <c r="N40" t="n">
-        <v>197.8907726785599</v>
+        <v>197.89077267856</v>
       </c>
       <c r="O40" t="n">
         <v>182.7841581183538</v>
       </c>
       <c r="P40" t="n">
-        <v>156.4034242093244</v>
+        <v>156.4034242093245</v>
       </c>
       <c r="Q40" t="n">
         <v>108.285623901991</v>
       </c>
       <c r="R40" t="n">
-        <v>58.14577090644309</v>
+        <v>58.1457709064431</v>
       </c>
       <c r="S40" t="n">
         <v>22.53648257736583</v>
@@ -34085,7 +34085,7 @@
         <v>5.525376531748535</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07053672168189629</v>
+        <v>0.0705367216818963</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34792,7 +34792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35023,7 +35023,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K12" t="n">
         <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>324.8393568706205</v>
       </c>
       <c r="M12" t="n">
         <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
-        <v>221.3845166277895</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P12" t="n">
         <v>109.7875025528265</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K15" t="n">
-        <v>84.21201855861572</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>324.8393568706205</v>
       </c>
       <c r="M15" t="n">
         <v>647.0155045122261</v>
@@ -35740,13 +35740,13 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P15" t="n">
         <v>109.7875025528265</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472377</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268333</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>138.6157555714073</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122261</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502846</v>
+        <v>248.7689815793721</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>166.6140215878887</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
         <v>233.0438950105729</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.545352539127</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040854</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517152</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M20" t="n">
-        <v>638.098798973041</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N20" t="n">
         <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233093</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588822</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312121</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268327</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748664</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>647.015504512226</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502846</v>
+        <v>248.7689815793721</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528264</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.88789890065709</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.699994849311</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
         <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233372</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
         <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369851</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353173</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K24" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2364793778949</v>
+        <v>563.5425263016372</v>
       </c>
       <c r="M24" t="n">
         <v>248.6981847970882</v>
@@ -36451,7 +36451,7 @@
         <v>269.8346725077054</v>
       </c>
       <c r="O24" t="n">
-        <v>618.2640905645922</v>
+        <v>224.4017712878626</v>
       </c>
       <c r="P24" t="n">
         <v>479.0366239673841</v>
@@ -36600,7 +36600,7 @@
         <v>470.7722557635402</v>
       </c>
       <c r="L26" t="n">
-        <v>636.8392860901893</v>
+        <v>636.8392860901913</v>
       </c>
       <c r="M26" t="n">
         <v>725.3806999255944</v>
@@ -36676,22 +36676,22 @@
         <v>144.9850483384172</v>
       </c>
       <c r="K27" t="n">
-        <v>116.2977242782312</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L27" t="n">
-        <v>196.3625145889916</v>
+        <v>563.5425263016372</v>
       </c>
       <c r="M27" t="n">
-        <v>714.4032485470882</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N27" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077054</v>
       </c>
       <c r="O27" t="n">
         <v>224.4017712878626</v>
       </c>
       <c r="P27" t="n">
-        <v>160.5738553274469</v>
+        <v>479.0366239673841</v>
       </c>
       <c r="Q27" t="n">
         <v>266.993226885086</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K30" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3625145889916</v>
+        <v>563.5425263016372</v>
       </c>
       <c r="M30" t="n">
-        <v>661.7698316182243</v>
+        <v>248.6981847970882</v>
       </c>
       <c r="N30" t="n">
-        <v>749.1770468512589</v>
+        <v>269.8346725077054</v>
       </c>
       <c r="O30" t="n">
-        <v>618.2640905645922</v>
+        <v>224.4017712878626</v>
       </c>
       <c r="P30" t="n">
-        <v>160.5738553274469</v>
+        <v>479.0366239673841</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.91593914923692</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K33" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L33" t="n">
-        <v>560.2364793778949</v>
+        <v>563.5425263016372</v>
       </c>
       <c r="M33" t="n">
         <v>248.6981847970882</v>
@@ -37162,7 +37162,7 @@
         <v>269.8346725077054</v>
       </c>
       <c r="O33" t="n">
-        <v>618.2640905645922</v>
+        <v>224.4017712878626</v>
       </c>
       <c r="P33" t="n">
         <v>479.0366239673841</v>
@@ -37387,10 +37387,10 @@
         <v>18.89401299800835</v>
       </c>
       <c r="K36" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L36" t="n">
-        <v>560.2364793778949</v>
+        <v>567.2028598924508</v>
       </c>
       <c r="M36" t="n">
         <v>248.6981847970882</v>
@@ -37399,13 +37399,13 @@
         <v>269.8346725077054</v>
       </c>
       <c r="O36" t="n">
-        <v>618.2640905645922</v>
+        <v>556.909760773307</v>
       </c>
       <c r="P36" t="n">
         <v>479.0366239673841</v>
       </c>
       <c r="Q36" t="n">
-        <v>266.993226885086</v>
+        <v>56.91593914923692</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>232.7339139906332</v>
       </c>
       <c r="K38" t="n">
-        <v>470.7722557635402</v>
+        <v>470.7722557635403</v>
       </c>
       <c r="L38" t="n">
         <v>636.8392860901893</v>
       </c>
       <c r="M38" t="n">
-        <v>725.3806999255944</v>
+        <v>725.3806999255945</v>
       </c>
       <c r="N38" t="n">
-        <v>722.3383225117428</v>
+        <v>722.3383225117429</v>
       </c>
       <c r="O38" t="n">
-        <v>636.439516227736</v>
+        <v>636.4395162277361</v>
       </c>
       <c r="P38" t="n">
-        <v>505.131470321932</v>
+        <v>505.1314703219321</v>
       </c>
       <c r="Q38" t="n">
         <v>301.3309199580368</v>
       </c>
       <c r="R38" t="n">
-        <v>31.22434466814695</v>
+        <v>31.22434466814698</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.89401299800835</v>
+        <v>144.9850483384172</v>
       </c>
       <c r="K39" t="n">
-        <v>111.2371450066233</v>
+        <v>375.702382019202</v>
       </c>
       <c r="L39" t="n">
-        <v>560.2364793778949</v>
+        <v>196.3625145889916</v>
       </c>
       <c r="M39" t="n">
-        <v>248.6981847970882</v>
+        <v>248.6981847970883</v>
       </c>
       <c r="N39" t="n">
-        <v>269.8346725077054</v>
+        <v>749.1770468512589</v>
       </c>
       <c r="O39" t="n">
-        <v>618.2640905645922</v>
+        <v>224.4017712878626</v>
       </c>
       <c r="P39" t="n">
-        <v>479.0366239673841</v>
+        <v>366.8742613364756</v>
       </c>
       <c r="Q39" t="n">
-        <v>266.993226885086</v>
+        <v>266.9932268850861</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>127.973725356556</v>
+        <v>127.9737253565561</v>
       </c>
       <c r="L40" t="n">
         <v>219.8496163246046</v>
       </c>
       <c r="M40" t="n">
-        <v>242.2946589553299</v>
+        <v>242.29465895533</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577886</v>
       </c>
       <c r="O40" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323935</v>
       </c>
       <c r="P40" t="n">
-        <v>153.6819834742179</v>
+        <v>153.681983474218</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029662</v>
+        <v>22.12358065029663</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>269.8346725077054</v>
       </c>
       <c r="O42" t="n">
-        <v>346.8324730374574</v>
+        <v>556.9097607733065</v>
       </c>
       <c r="P42" t="n">
         <v>479.0366239673841</v>
       </c>
       <c r="Q42" t="n">
-        <v>266.9932268850861</v>
+        <v>56.91593914923695</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>301.3309199580368</v>
       </c>
       <c r="R44" t="n">
-        <v>31.22434466814698</v>
+        <v>31.22434466814604</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>375.702382019202</v>
       </c>
       <c r="L45" t="n">
-        <v>196.3625145889916</v>
+        <v>563.5425263016367</v>
       </c>
       <c r="M45" t="n">
-        <v>615.8781965097334</v>
+        <v>248.6981847970883</v>
       </c>
       <c r="N45" t="n">
         <v>269.8346725077054</v>
